--- a/QUANGHANH2/excel/CDVT/Tang-Giam.xlsx
+++ b/QUANGHANH2/excel/CDVT/Tang-Giam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DUONG\Desktop\QUANGHANH-PROTOTYPE\QUANGHANH2\excel\CDVT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9FE50A-FF4A-460F-BFE2-2C468E7377E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEFEAEDC-3869-4B8D-8088-311CCC92086A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32760" yWindow="32760" windowWidth="28800" windowHeight="12915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,6 +47,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-14809]d/m/yyyy;@"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -142,21 +145,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,49 +450,49 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="21" style="5" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="18.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="21" style="3" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="2" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
